--- a/pcb/Microphone_circuit/uusin_kicad/Bom_excel.xlsx
+++ b/pcb/Microphone_circuit/uusin_kicad/Bom_excel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\suunnattava-suuntamikrofoni\pcb\microphone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markuslang/Desktop/suunnattava-suuntamikrofoni/pcb/Microphone_circuit/uusin_kicad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{173C8E8F-6D90-4DE1-8829-5E0431288C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C24E25A-D306-EC40-9F53-0153653D82E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{9D97EF5D-4AB9-A840-8A23-29121E81D10E}"/>
+    <workbookView xWindow="1620" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{9D97EF5D-4AB9-A840-8A23-29121E81D10E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bom" localSheetId="0">Sheet1!$A$1:$E$12</definedName>
+    <definedName name="bom" localSheetId="0">Sheet1!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Designator</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>LCSC Part #</t>
-  </si>
-  <si>
     <t>C1, C11, C16, C21, C26, C6</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>CP_Radial_D7.5mm_P2.50mm</t>
   </si>
   <si>
-    <t>pajalta?</t>
-  </si>
-  <si>
     <t>https://www.digikey.fi/fi/products/detail/ole-wolff-electronics-inc/OWMO-9745TA-32-CC101/20371554</t>
   </si>
   <si>
@@ -165,7 +159,16 @@
     <t>https://www.digikey.fi/fi/products/detail/texas-instruments/LM386N-1-NOPB/6284</t>
   </si>
   <si>
-    <t>Tilausmäärä</t>
+    <t>Pajalta</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Order link</t>
+  </si>
+  <si>
+    <t>Cost / unit</t>
   </si>
 </sst>
 </file>
@@ -213,11 +216,11 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,22 +536,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3AA7D4-E165-3D4C-A6A5-27BB6958E796}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="91.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,18 +560,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>805</v>
@@ -576,29 +583,30 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>805</v>
@@ -607,15 +615,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
       <c r="B5">
         <v>805</v>
@@ -624,15 +633,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6">
         <v>805</v>
@@ -641,35 +651,52 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>805</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>805</v>
@@ -678,15 +705,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>805</v>
@@ -694,63 +722,58 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>805</v>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4F024339-E29F-425A-A3B6-FCCC84C34B00}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{CCB2780F-44E1-4B7A-9912-AF0347208308}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{3A9D77A8-B120-4803-B549-854B406FC986}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{12797AB7-5672-43B1-BEAD-8F12E3BFDF7A}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{C07489AC-12D7-4524-A78E-2673344FD124}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{16053C96-CFEE-4734-B643-41332FAA730B}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{45A91B91-B127-41AB-A7EF-18B175886C61}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{CE6C2501-0BDF-4361-A8CF-3FDB7CDF94FB}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4C8AE5D2-3E3C-2E49-A344-FE35E6E2E717}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{A6A93C89-C8BA-6046-8FB9-8BE6BB825E0C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{366735A3-F6B8-6548-8389-894145B8B7F6}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{8E793422-80AE-EA4B-9B9B-D24A2B6924CD}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{01B09374-D231-064D-BE06-3774E767660E}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{C756F0B2-A682-9C48-B9D8-8EA3D3DA0FC1}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{2035EAF3-50AE-6D4C-8E97-E59A081B0308}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{08DA07DD-0B47-7041-A92D-5E68B0F6167C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{1E4F397C-BD62-0542-A807-8CB6D6E4E351}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007781A1E675BFBB45A9FB64BD8EC8F591" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be613bfdb07b73f72e4d28ab1e829e74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9c85263f-6296-45ab-aaac-2f49cd1954fb" xmlns:ns4="8b76ba3c-0ec7-45b2-b407-9aa9a7df2f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d231cbf7d33a7232ff1df0b5689aeb0" ns3:_="" ns4:_="">
     <xsd:import namespace="9c85263f-6296-45ab-aaac-2f49cd1954fb"/>
@@ -947,15 +970,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -965,6 +979,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE832FA8-30C4-4B08-85B5-F10D9202DD68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E78E68E2-5513-4C48-9448-59259C9DA913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -983,14 +1005,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE832FA8-30C4-4B08-85B5-F10D9202DD68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5FC262-7946-4F44-A2D2-BE904D1FE150}">
   <ds:schemaRefs>
